--- a/html/cms/static/file/员工花名册模板.xlsx
+++ b/html/cms/static/file/员工花名册模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>职位名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>证件类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -54,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>职务名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合同类型名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,6 +91,14 @@
   </si>
   <si>
     <t>员工状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职级名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -455,11 +455,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="1" customWidth="1"/>
@@ -500,49 +500,49 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +553,7 @@
       <formula2>47848</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576">
-      <formula1>"在职,医疗期"</formula1>
+      <formula1>"在职,医疗期,退休,离职"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:S1048576">
       <formula1>14611</formula1>
